--- a/data/trans_bre/P32A-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Clase-trans_bre.xlsx
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 0,34</t>
+          <t>-3,59; 0,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 5,58</t>
+          <t>-1,14; 5,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,93</t>
+          <t>-2,66; 1,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 224,37</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,17; -0,44</t>
+          <t>-3,78; -0,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,61</t>
+          <t>-3,96; 1,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,93</t>
+          <t>-1,19; 4,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,63</t>
+          <t>-0,44; 3,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-87,43; 4225,92</t>
+          <t>-84,54; 3181,04</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; -0,52</t>
+          <t>-3,04; -0,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; -1,8</t>
+          <t>-6,14; -1,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 6,52</t>
+          <t>-2,87; 6,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -0,73</t>
+          <t>-4,46; -0,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 626,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,55; -0,66</t>
+          <t>-2,59; -0,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 0,19</t>
+          <t>-3,03; 0,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 0,06</t>
+          <t>-2,58; -0,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -0,16</t>
+          <t>-3,75; -0,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 52,51</t>
+          <t>-100,0; 62,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 147,14</t>
+          <t>-100,0; 47,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-98,22; -0,37</t>
+          <t>-98,62; -2,74</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 3,39</t>
+          <t>-1,45; 3,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,67</t>
+          <t>-4,01; 0,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; -0,6</t>
+          <t>-5,65; -0,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,13</t>
+          <t>-2,55; 2,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 71,33</t>
+          <t>-100,0; 116,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 51,84</t>
+          <t>-100,0; 35,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-77,42; 216,61</t>
+          <t>-78,21; 256,67</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,12</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 0,91</t>
+          <t>-5,02; 0,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 2,19</t>
+          <t>-3,95; 2,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,66</t>
+          <t>0,0; 9,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,16; 300,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; -0,13</t>
+          <t>-1,38; -0,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; -0,69</t>
+          <t>-2,68; -0,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,33</t>
+          <t>-1,59; 0,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,42</t>
+          <t>-1,61; 0,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-91,84; 7,05</t>
+          <t>-92,17; 16,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-87,74; -28,26</t>
+          <t>-86,56; -30,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-65,18; 23,07</t>
+          <t>-67,2; 25,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-72,94; 27,92</t>
+          <t>-72,61; 32,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32A-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
